--- a/src/test/resources/SignInDataExcel.xlsx
+++ b/src/test/resources/SignInDataExcel.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ANHTESTER\SeleniumJava\Course_Selenium_Java_042021\JavaSelenium\AnhTesterFrameworkWithTestNG\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ANHTESTER\SeleniumTestNGParallel\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1364B9AE-EA54-4243-9A93-0D21C2B74A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D3CAB2-5651-4763-A275-7DF73B7F4414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7A35AAC3-973C-4AA0-816A-DECEFD0ED1D8}"/>
+    <workbookView xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{7A35AAC3-973C-4AA0-816A-DECEFD0ED1D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Login" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,10 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="10">
-  <si>
-    <t>username</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>password</t>
   </si>
@@ -54,19 +52,27 @@
     <t>fail</t>
   </si>
   <si>
-    <t>Passed</t>
+    <t>email</t>
+  </si>
+  <si>
+    <t>admin02@mailinator.com</t>
+  </si>
+  <si>
+    <t>tld01@mailinator.com</t>
+  </si>
+  <si>
+    <t>tmb01@mailinator.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -75,7 +81,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -84,12 +90,12 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -105,16 +111,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="11"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="11"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
       </patternFill>
     </fill>
     <fill>
@@ -151,7 +147,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -165,55 +161,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -531,143 +485,143 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E2E380-41FF-438A-822D-1CBE2A443631}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="26.19921875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="2" width="16.3984375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="14.296875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="2" width="14.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="17.5" collapsed="true"/>
-    <col min="6" max="16384" style="2" width="8.796875" collapsed="true"/>
+    <col min="1" max="1" width="26.21875" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.44140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.33203125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.44140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="8.77734375" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="4">
         <v>123</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="C3" s="4">
         <v>123</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>8</v>
+      <c r="D3" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -684,4 +638,60 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA539FB-7177-4A41-AD81-E3BD8F311F7A}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.77734375" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>123456</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{E0869671-CFA8-44DD-8169-575C08648A5A}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{63250492-155D-493D-B4C5-77EB3E2F82D1}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{A85A2643-8F42-493B-BC8C-F8274E352787}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>